--- a/planilhas/cidade.xlsx
+++ b/planilhas/cidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.ronconi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BD92F9-05C3-44AA-8F38-A9F2CDC8EBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6EA898-BA06-47E0-A12B-14DA6EF6DC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4886A40-02F7-460B-9E83-9DC62354259A}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{E4886A40-02F7-460B-9E83-9DC62354259A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Cidade</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>São Ludgero</t>
+  </si>
+  <si>
+    <t>Criciuma</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD8B536-72EF-4EB0-807F-663756C57685}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +462,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
